--- a/public_html/text/resources.xlsx
+++ b/public_html/text/resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>Skule Mental Wellness</t>
@@ -31,6 +34,9 @@
     <t>Skule Mental Wellness (SMW) is the University of Toronto’s mental wellness directorship for engineering students. They provide resources and even bursaries to improve access to mental health care</t>
   </si>
   <si>
+    <t>U of T Specific, Mental Health</t>
+  </si>
+  <si>
     <t>Accessibility Services</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
   </si>
   <si>
     <t>The role of Accessibility Services is to facilitate the inclusion of students with disabilities into all aspects of university life with a focus on skills development, especially in the areas of self-advocacy and academic skills</t>
+  </si>
+  <si>
+    <t>U of T Specific</t>
   </si>
   <si>
     <t>Disclosing incidents of Bias, Discrimination, Harassment or Unprofessionalism</t>
@@ -58,6 +67,9 @@
     <t>Health &amp; Wellness provides a range of health services for your physical and mental health, wellness programs and information to help support you in achieving your personal and academic goals. As an Engineering student you have access to additional counselling support, when contacting Health &amp; Wellness for a counselling appointment mention that you are an Engineering student and they will let you know of the available appointments with the On- Location Counsellors if applicable.</t>
   </si>
   <si>
+    <t>U of T Specific, Healthcare</t>
+  </si>
+  <si>
     <t>Students for Barrier Free Access</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
   </si>
   <si>
     <t>The Office provides innovative education, programming, resources and advocacy on sexual and gender diversity for students, staff and faculty across the University’s three campuses.</t>
+  </si>
+  <si>
+    <t>U of T Specific, Sexual Health</t>
   </si>
   <si>
     <t>Sexual Education Center</t>
@@ -94,6 +109,9 @@
     <t xml:space="preserve">LGBTOUT is the oldest LGBTQ+ student organization in Canada LGBTOUT provides a safe and inclusive space, resources, and programming for LGBTQ+ students at U of T. </t>
   </si>
   <si>
+    <t>General, Community Services</t>
+  </si>
+  <si>
     <t>Gender Neutral Bathrooms - UTSG</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t>Hassle Free Clinic is a community-based clinic providing medical and counselling services in all areas of sexual health. It is one of the country’s busiest sexually transmitted infection (STI) clinics.</t>
   </si>
   <si>
+    <t>Sexual Health</t>
+  </si>
+  <si>
     <t>HQ Toronto</t>
   </si>
   <si>
@@ -119,6 +140,9 @@
   </si>
   <si>
     <t>HQ is committed to the health of cis guys into guys and two-spirit, transgender and non-binary people. We’re also partners with hospitals and primary health care partners in Toronto to provide innovative and holistic health services.</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>Planned Parenthood</t>
@@ -148,14 +172,19 @@
     <t xml:space="preserve">Central Toronto Youth Services (CTYS) is a community-based, accredited Children’s Mental Health Centre that serves many of Toronto’s most vulnerable youth (13-24). </t>
   </si>
   <si>
+    <t>Community Services, Youth</t>
+  </si>
+  <si>
     <t>519 Church Street Community Center</t>
   </si>
   <si>
     <t>https://www.the519.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">The 519 is committed to the health, happiness and full participation of 2SLGBTQ+ communities. Striving to make a difference in people’s lives, while promote inclusion, understanding and respect.
-</t>
+    <t>The 519 is committed to the health, happiness and full participation of 2SLGBTQ+ communities. Striving to make a difference in people’s lives, while promote inclusion, understanding and respect.</t>
+  </si>
+  <si>
+    <t>Community Services</t>
   </si>
   <si>
     <t>The Centre for Women and Trans People</t>
@@ -165,6 +194,9 @@
   </si>
   <si>
     <t>The Centre for Women and Trans People is committed to providing a safe, harassment-free drop in space for all women and trans people on campus. We provide free support, referrals, resources and advocacy on issues of sexism, racism, homophobia, transphobia, ableism, ageism, violence, health and poverty through our workshops, events, services and programming.</t>
+  </si>
+  <si>
+    <t>Community services, Women</t>
   </si>
   <si>
     <t>Friends of Ruby</t>
@@ -183,6 +215,9 @@
   </si>
   <si>
     <t>EngiQueers Canada is a nationwide non-profit organization that represents over 30 similar member groups at engineering schools across the country.</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
   <si>
     <t>LGBT Youth Line</t>
@@ -221,6 +256,9 @@
     <t>A comprehensive guide to safer sex, relationships, and reproductive health for trans or non-binary people and their partners</t>
   </si>
   <si>
+    <t>Educational Resource</t>
+  </si>
+  <si>
     <t>Trans Woman’s Guide to Safer Sex</t>
   </si>
   <si>
@@ -230,6 +268,9 @@
     <t>A guide on safer sex, relationships, and reproductive health of trans women and their partners. Topics include STIs, surgeries, tips for</t>
   </si>
   <si>
+    <t>Education Resource</t>
+  </si>
+  <si>
     <t>Toronto PFLAG</t>
   </si>
   <si>
@@ -237,6 +278,111 @@
   </si>
   <si>
     <t>Toronto Pflag promotes the health and well-being of LGBTQ2S+ people by helping to keep families together through Support and Education.</t>
+  </si>
+  <si>
+    <t>TAIBU Community Health Center</t>
+  </si>
+  <si>
+    <t>https://www.taibuchc.ca/en/</t>
+  </si>
+  <si>
+    <t>TAIBU Community Health Centre offers Black-identifying clients from throughout the Greater Toronto Area access to primary care, health promotion and disease prevention programs in a culturally affirming environment.</t>
+  </si>
+  <si>
+    <t>Community Services, Black Community</t>
+  </si>
+  <si>
+    <t>Black Coalition for AIDS Prevention</t>
+  </si>
+  <si>
+    <t>https://blackcap.ca/programs-services/</t>
+  </si>
+  <si>
+    <t>Since 1989, the Black Coalition for AIDS Prevention (Black CAP) has worked to respond to the threat of HIV and AIDS in Toronto’s African, Caribbean and Black communities. They host culturally relevant outreach, prevention and support services for people infected with, affected by, or at risk of contracting HIV.</t>
+  </si>
+  <si>
+    <t>Asian Community AIDS Services</t>
+  </si>
+  <si>
+    <t>https://acas.org/</t>
+  </si>
+  <si>
+    <t>Asian Community AIDS Services (ACAS) is a charitable, non-profit, community-based organization located in Toronto. They provide safer sex education and services to the East and Southeast Asian communities and support services to persons living with HIV/AIDS and members of the LGBTQ communities.</t>
+  </si>
+  <si>
+    <t>Sexual Health, Asian Community</t>
+  </si>
+  <si>
+    <t>Queer Asian Youth</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/queerasianyouth/?hl=en</t>
+  </si>
+  <si>
+    <t>QAY explores a variety of topics like: sexual health, HIV/AIDS/STI prevention, healthy relationships, anti-oppression, intersectionality, mental health, and harm-reduction. They meet at monthly socials and recreational events.</t>
+  </si>
+  <si>
+    <t>Community Services, Asian Community, Youth</t>
+  </si>
+  <si>
+    <t>Salaam Canada</t>
+  </si>
+  <si>
+    <t>https://www.salaamcanada.info/</t>
+  </si>
+  <si>
+    <t>Salaam Canada offers discussion, support, and social spaces for LGBTQ+ Muslims across Turtle Island (with a chapter in Toronto). They also offer training services to organizations who want to build their capacity to better serve LGBTQ+ Muslims.</t>
+  </si>
+  <si>
+    <t>Community Services, Muslim Community</t>
+  </si>
+  <si>
+    <t>Alliance for South Asian AIDS Prevention</t>
+  </si>
+  <si>
+    <t>https://www.asaap.ca/who-we-are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAAP is committed to providing culturally responsive holistic health promotion and support services for South Asian, Middle Eastern, Indo-Caribbean people and other related communities who are LGBTQ+ and/or living with, at risk of, or affected by HIV and related health conditions. </t>
+  </si>
+  <si>
+    <t>Community Services, Asian Community, Sexual Health</t>
+  </si>
+  <si>
+    <t>IWHC Toronto</t>
+  </si>
+  <si>
+    <t>https://iwhctoronto.com/</t>
+  </si>
+  <si>
+    <t>IWHC is a sexual health and reproductive health clinic. We provide testing, treatment, counselling and outreach to all genders for a wide range of issues with a multilingual, all-female staff. Services covered by OHIP/federal papers, if you do not have healthcare coverage, services will be covered by IWHC for free.</t>
+  </si>
+  <si>
+    <t>Community Services, Sexual Health</t>
+  </si>
+  <si>
+    <t>2-Spirited People of the 1st Nations</t>
+  </si>
+  <si>
+    <t>https://2spirits.org/</t>
+  </si>
+  <si>
+    <t>They support 2-Spirit peoples and First Nations, Métis, and Inuit community members who are at risk of or living with HIV, hepatitis C, and related co-infections. Also support community members who are facing the effects of historic and ongoing colonial violence so that we may thrive within our communities and nations.</t>
+  </si>
+  <si>
+    <t>Community Services, Sexual Health, Indigenous Community</t>
+  </si>
+  <si>
+    <t>Native Youth Sexual Health Network</t>
+  </si>
+  <si>
+    <t>https://www.nativeyouthsexualhealth.com/network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYSHN works with Indigenous peoples across Canada and the United States to advocate for and build strong, comprehensive, and culturally safe sexuality and reproductive health, rights, and justice initiatives in their own communities. </t>
+  </si>
+  <si>
+    <t>Community Services, Sexual Health, Indigenous Community, Youth</t>
   </si>
 </sst>
 </file>
@@ -541,7 +687,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -567,15 +715,17 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -601,15 +751,17 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -635,15 +787,17 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -669,15 +823,17 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -703,15 +859,17 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -737,15 +895,17 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -771,15 +931,17 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -805,15 +967,17 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -839,15 +1003,17 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -873,15 +1039,17 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -907,15 +1075,17 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -941,15 +1111,17 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -975,15 +1147,17 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1009,15 +1183,17 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1043,15 +1219,17 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1077,15 +1255,17 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1111,15 +1291,17 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1145,15 +1327,17 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1179,15 +1363,17 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1213,15 +1399,17 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1247,15 +1435,17 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1281,15 +1471,17 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1315,15 +1507,17 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1349,15 +1543,17 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1382,10 +1578,18 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1410,10 +1614,18 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1438,10 +1650,18 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1466,10 +1686,18 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1494,10 +1722,18 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1522,10 +1758,18 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1550,10 +1794,18 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1578,10 +1830,18 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1606,10 +1866,18 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1634,8 +1902,8 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -28679,7 +28947,16 @@
     <hyperlink r:id="rId22" ref="B23"/>
     <hyperlink r:id="rId23" ref="B24"/>
     <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B32"/>
+    <hyperlink r:id="rId32" ref="B33"/>
+    <hyperlink r:id="rId33" ref="B34"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>